--- a/02 Gestion de Proyecto/URI-GP-CRONO-27-09-18.xlsx
+++ b/02 Gestion de Proyecto/URI-GP-CRONO-27-09-18.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fponce\Desktop\Evolucion TP\02 Gestion de Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanop\Desktop\Nueva carpeta (2)\TPEvolucion_2018_02\02 Gestion de Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ADB0B5DB-794C-4287-B480-FA6CF5BE8FF9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB94030-FECE-411C-9487-5D50046B1C8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="124">
   <si>
     <t>Items de Configuracion</t>
   </si>
@@ -160,9 +160,6 @@
     <t>DDYCLA</t>
   </si>
   <si>
-    <t>URI-DESP-DCLA</t>
-  </si>
-  <si>
     <t>Diagrama de Objetos</t>
   </si>
   <si>
@@ -256,9 +253,6 @@
     <t>Registro de Versiones</t>
   </si>
   <si>
-    <t>URI-MANT-REPRU</t>
-  </si>
-  <si>
     <t>Detalle de las Versiones</t>
   </si>
   <si>
@@ -274,9 +268,6 @@
     <t>COMVER</t>
   </si>
   <si>
-    <t>URI-MANT-CONVER</t>
-  </si>
-  <si>
     <t>Distribucion del software</t>
   </si>
   <si>
@@ -389,13 +380,25 @@
   </si>
   <si>
     <t>CUS</t>
+  </si>
+  <si>
+    <t>URI-DESP-DDYCLA</t>
+  </si>
+  <si>
+    <t>URI-MANT-COMVER</t>
+  </si>
+  <si>
+    <t>REVER</t>
+  </si>
+  <si>
+    <t>URI-MANT-REVER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -412,6 +415,11 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Roboto"/>
     </font>
   </fonts>
@@ -550,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -602,6 +610,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -623,18 +640,15 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2662,14 +2676,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="775607" cy="200025"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
@@ -2678,7 +2697,7 @@
                   <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B011BA41-C589-44FD-B81E-20CDF3CDE314}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2718,20 +2737,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="775607" cy="200025"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
@@ -2740,7 +2764,7 @@
                   <a14:compatExt spid="_x0000_s1058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1863DAD-51D2-40EC-8222-0415C3FF57ED}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2780,20 +2804,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="775607" cy="200025"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
@@ -2802,7 +2831,7 @@
                   <a14:compatExt spid="_x0000_s1059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5544EBE5-7D99-41E9-B7B2-CF9FE7E1D4D3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2842,7 +2871,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2850,7 +2879,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3151,11 +3180,11 @@
   </sheetPr>
   <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
@@ -3168,8 +3197,8 @@
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="27.75" customHeight="1"/>
+    <row r="2" spans="2:10" ht="15">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
@@ -3198,11 +3227,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="24" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3225,9 +3254,9 @@
       </c>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+    <row r="4" spans="2:10" ht="27" customHeight="1">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
@@ -3248,9 +3277,9 @@
       </c>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+    <row r="5" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
@@ -3271,9 +3300,9 @@
       </c>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+    <row r="6" spans="2:10" ht="24.75" customHeight="1">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
@@ -3294,9 +3323,9 @@
       </c>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
+    <row r="7" spans="2:10" ht="29.25" customHeight="1">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
@@ -3313,25 +3342,25 @@
         <v>15</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>106</v>
+    <row r="8" spans="2:10" ht="29.25" customHeight="1">
+      <c r="B8" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>14</v>
@@ -3340,21 +3369,21 @@
         <v>15</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+    <row r="9" spans="2:10" ht="29.25" customHeight="1">
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>14</v>
@@ -3363,18 +3392,18 @@
         <v>15</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="31" t="s">
+    <row r="10" spans="2:10" ht="21.75" customHeight="1">
+      <c r="B10" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="23" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -3394,17 +3423,17 @@
       </c>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="21.75" customHeight="1">
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
       <c r="D11" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>14</v>
@@ -3413,13 +3442,13 @@
         <v>15</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
+    <row r="12" spans="2:10" ht="21.75" customHeight="1">
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="9" t="s">
         <v>36</v>
       </c>
@@ -3436,15 +3465,15 @@
         <v>15</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="26" t="s">
+    <row r="13" spans="2:10" ht="21" customHeight="1">
+      <c r="B13" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -3463,13 +3492,13 @@
         <v>15</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+    <row r="14" spans="2:10" ht="21.75" customHeight="1">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="11" t="s">
         <v>44</v>
       </c>
@@ -3477,7 +3506,7 @@
         <v>45</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>14</v>
@@ -3486,21 +3515,21 @@
         <v>15</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="11" t="s">
+    <row r="15" spans="2:10" ht="22.5" customHeight="1">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>14</v>
@@ -3509,25 +3538,25 @@
         <v>15</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="21" t="s">
+    <row r="16" spans="2:10" ht="21" customHeight="1">
+      <c r="B16" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="D16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>14</v>
@@ -3535,22 +3564,22 @@
       <c r="H16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="36" t="s">
-        <v>114</v>
+      <c r="I16" s="21" t="s">
+        <v>111</v>
       </c>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+    <row r="17" spans="2:10" ht="20.25" customHeight="1">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>14</v>
@@ -3558,22 +3587,22 @@
       <c r="H17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="36" t="s">
-        <v>102</v>
+      <c r="I17" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+    <row r="18" spans="2:10" ht="20.25" customHeight="1">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>14</v>
@@ -3581,22 +3610,22 @@
       <c r="H18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="36" t="s">
-        <v>105</v>
+      <c r="I18" s="21" t="s">
+        <v>102</v>
       </c>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+    <row r="19" spans="2:10" ht="20.25" customHeight="1">
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>14</v>
@@ -3604,225 +3633,225 @@
       <c r="H19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="I19" s="21" t="s">
         <v>20</v>
       </c>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" ht="21" customHeight="1">
       <c r="B20" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="E20" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="F20" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>63</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="24" t="s">
+    <row r="21" spans="2:10" ht="21" customHeight="1">
+      <c r="B21" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="D21" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="E21" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="F21" s="17" t="s">
         <v>67</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>68</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
+    <row r="22" spans="2:10" ht="21" customHeight="1">
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="F22" s="17" t="s">
         <v>70</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>71</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+    <row r="23" spans="2:10" ht="20.25" customHeight="1">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="F23" s="17" t="s">
         <v>73</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>74</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="29" t="s">
+    <row r="24" spans="2:10" ht="21.75" customHeight="1">
+      <c r="B24" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="D24" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>77</v>
-      </c>
       <c r="E24" s="19" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
+    <row r="25" spans="2:10" ht="20.25" customHeight="1">
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="19" t="s">
         <v>79</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>81</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
+    <row r="26" spans="2:10" ht="22.5" customHeight="1">
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="24" t="s">
+    <row r="27" spans="2:10" ht="21.75" customHeight="1">
+      <c r="B27" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="F27" s="17" t="s">
         <v>86</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>89</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+    <row r="28" spans="2:10" ht="19.5" customHeight="1">
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+    <row r="29" spans="2:10" ht="19.5" customHeight="1">
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+    <row r="30" spans="2:10" ht="19.5" customHeight="1">
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+    <row r="31" spans="2:10" ht="19.5" customHeight="1">
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>

--- a/02 Gestion de Proyecto/URI-GP-CRONO-27-09-18.xlsx
+++ b/02 Gestion de Proyecto/URI-GP-CRONO-27-09-18.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanop\Desktop\Nueva carpeta (2)\TPEvolucion_2018_02\02 Gestion de Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fponce\Desktop\Nueva carpeta (2)\TPEvolucion_2018_02\02 Gestion de Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB94030-FECE-411C-9487-5D50046B1C8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A506A356-8BA3-4C01-88D0-74F37ECE4DA5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="118">
   <si>
     <t>Items de Configuracion</t>
   </si>
@@ -160,15 +160,6 @@
     <t>DDYCLA</t>
   </si>
   <si>
-    <t>Diagrama de Objetos</t>
-  </si>
-  <si>
-    <t>DOBJ</t>
-  </si>
-  <si>
-    <t>URI-DESP-DOBJ</t>
-  </si>
-  <si>
     <t>Prototipado</t>
   </si>
   <si>
@@ -185,15 +176,6 @@
   </si>
   <si>
     <t>URI-PROTO-CUSRE</t>
-  </si>
-  <si>
-    <t>Encuestas a clientes</t>
-  </si>
-  <si>
-    <t>EC</t>
-  </si>
-  <si>
-    <t>URI-PROTO-EC</t>
   </si>
   <si>
     <t>Despliegue</t>
@@ -398,7 +380,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -415,11 +397,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Roboto"/>
     </font>
   </fonts>
@@ -558,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -613,12 +590,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -632,7 +603,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -804,13 +774,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>30</xdr:row>
+          <xdr:row>28</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>30</xdr:row>
+          <xdr:row>28</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -871,13 +841,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -938,13 +908,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1005,13 +975,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1072,13 +1042,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>23</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>23</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1139,13 +1109,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>24</xdr:row>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>24</xdr:row>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1206,13 +1176,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1273,13 +1243,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>26</xdr:row>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>26</xdr:row>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1340,13 +1310,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1407,13 +1377,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>28</xdr:row>
+          <xdr:row>26</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>28</xdr:row>
+          <xdr:row>26</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1474,13 +1444,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>29</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>29</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2279,13 +2249,13 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:rowOff>200025</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2345,13 +2315,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2412,13 +2382,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2479,14 +2449,14 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2546,13 +2516,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2814,13 +2784,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2879,7 +2849,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3178,13 +3148,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:J31"/>
+  <dimension ref="B1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
@@ -3197,8 +3167,8 @@
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="27.75" customHeight="1"/>
-    <row r="2" spans="2:10" ht="15">
+    <row r="1" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
@@ -3227,11 +3197,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B3" s="24" t="s">
+    <row r="3" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3254,9 +3224,9 @@
       </c>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="2:10" ht="27" customHeight="1">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+    <row r="4" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
@@ -3277,9 +3247,9 @@
       </c>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+    <row r="5" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
@@ -3300,9 +3270,9 @@
       </c>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="2:10" ht="24.75" customHeight="1">
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+    <row r="6" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
@@ -3323,9 +3293,9 @@
       </c>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="2:10" ht="29.25" customHeight="1">
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
+    <row r="7" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
@@ -3342,25 +3312,25 @@
         <v>15</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="2:10" ht="29.25" customHeight="1">
-      <c r="B8" s="37" t="s">
+    <row r="8" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>14</v>
@@ -3369,21 +3339,21 @@
         <v>15</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="2:10" ht="29.25" customHeight="1">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
+    <row r="9" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>14</v>
@@ -3392,18 +3362,18 @@
         <v>15</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="2:10" ht="21.75" customHeight="1">
-      <c r="B10" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="34" t="s">
+    <row r="10" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -3423,17 +3393,17 @@
       </c>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="2:10" ht="21.75" customHeight="1">
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+    <row r="11" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>14</v>
@@ -3442,13 +3412,13 @@
         <v>15</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="21.75" customHeight="1">
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
+    <row r="12" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="9" t="s">
         <v>36</v>
       </c>
@@ -3465,15 +3435,15 @@
         <v>15</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="2:10" ht="21" customHeight="1">
-      <c r="B13" s="29" t="s">
+    <row r="13" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="27" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -3492,13 +3462,13 @@
         <v>15</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="2:10" ht="21.75" customHeight="1">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
+    <row r="14" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="11" t="s">
         <v>44</v>
       </c>
@@ -3506,7 +3476,7 @@
         <v>45</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>14</v>
@@ -3515,48 +3485,48 @@
         <v>15</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="2:10" ht="22.5" customHeight="1">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="22" t="s">
+    <row r="15" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="C15" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="D15" s="1" t="s">
         <v>48</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="J15" s="8"/>
+      <c r="I15" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="2:10" ht="21" customHeight="1">
-      <c r="B16" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>50</v>
-      </c>
+    <row r="16" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>14</v>
@@ -3565,21 +3535,21 @@
         <v>15</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+    <row r="17" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>14</v>
@@ -3588,84 +3558,72 @@
         <v>15</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="1" t="s">
+    <row r="18" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="J18" s="7"/>
+      <c r="E18" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="1" t="s">
+    <row r="19" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>20</v>
-      </c>
+      <c r="C19" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="2:10" ht="21" customHeight="1">
-      <c r="B20" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="15" t="s">
+    <row r="20" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="8"/>
+      <c r="E20" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="2:10" ht="21" customHeight="1">
-      <c r="B21" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>64</v>
-      </c>
+    <row r="21" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="17" t="s">
         <v>65</v>
       </c>
@@ -3680,102 +3638,102 @@
       <c r="I21" s="18"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="2:10" ht="21" customHeight="1">
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="17" t="s">
+    <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="C22" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="D22" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="7"/>
+      <c r="E22" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="17" t="s">
+    <row r="23" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="7"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="2:10" ht="21.75" customHeight="1">
-      <c r="B24" s="32" t="s">
+    <row r="24" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="E24" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>122</v>
-      </c>
       <c r="F24" s="19" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="19" t="s">
+    <row r="25" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="D25" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="E25" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="8"/>
+      <c r="F25" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="2:10" ht="22.5" customHeight="1">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="19" t="s">
+    <row r="26" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="8"/>
+      <c r="E26" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="2:10" ht="21.75" customHeight="1">
-      <c r="B27" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>83</v>
-      </c>
+    <row r="27" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="17" t="s">
         <v>84</v>
       </c>
@@ -3790,9 +3748,9 @@
       <c r="I27" s="18"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="2:10" ht="19.5" customHeight="1">
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
+    <row r="28" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="17" t="s">
         <v>87</v>
       </c>
@@ -3807,9 +3765,9 @@
       <c r="I28" s="18"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="2:10" ht="19.5" customHeight="1">
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
+    <row r="29" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="17" t="s">
         <v>90</v>
       </c>
@@ -3824,55 +3782,21 @@
       <c r="I29" s="18"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="2:10" ht="19.5" customHeight="1">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" spans="2:10" ht="19.5" customHeight="1">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="7"/>
-    </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="C3:C7"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:C24"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
@@ -3892,13 +3816,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>30</xdr:row>
+                    <xdr:row>28</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>30</xdr:row>
+                    <xdr:row>28</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3914,13 +3838,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>18</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>18</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3936,13 +3860,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>21</xdr:row>
+                    <xdr:row>19</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>21</xdr:row>
+                    <xdr:row>19</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3958,13 +3882,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>22</xdr:row>
+                    <xdr:row>20</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>22</xdr:row>
+                    <xdr:row>20</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3980,13 +3904,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>23</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>23</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
@@ -4002,13 +3926,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>24</xdr:row>
+                    <xdr:row>22</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>24</xdr:row>
+                    <xdr:row>22</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
@@ -4024,13 +3948,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>25</xdr:row>
+                    <xdr:row>23</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>25</xdr:row>
+                    <xdr:row>23</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
@@ -4046,13 +3970,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>26</xdr:row>
+                    <xdr:row>24</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>26</xdr:row>
+                    <xdr:row>24</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
@@ -4068,13 +3992,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>27</xdr:row>
+                    <xdr:row>25</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>27</xdr:row>
+                    <xdr:row>25</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
@@ -4090,13 +4014,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>28</xdr:row>
+                    <xdr:row>26</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>28</xdr:row>
+                    <xdr:row>26</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
@@ -4112,13 +4036,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>29</xdr:row>
+                    <xdr:row>27</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>29</xdr:row>
+                    <xdr:row>27</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
@@ -4377,13 +4301,13 @@
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
+                    <xdr:rowOff>200025</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4398,13 +4322,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>15</xdr:row>
+                    <xdr:row>14</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>15</xdr:row>
+                    <xdr:row>14</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
@@ -4420,13 +4344,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>16</xdr:row>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>16</xdr:row>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
@@ -4442,14 +4366,14 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>200025</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4464,13 +4388,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>19</xdr:row>
+                    <xdr:row>17</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>19</xdr:row>
+                    <xdr:row>17</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
@@ -4552,13 +4476,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:row>16</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:row>16</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>

--- a/02 Gestion de Proyecto/URI-GP-CRONO-27-09-18.xlsx
+++ b/02 Gestion de Proyecto/URI-GP-CRONO-27-09-18.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fponce\Desktop\Nueva carpeta (2)\TPEvolucion_2018_02\02 Gestion de Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fponce\Desktop\Evolucion\CommitLog\TPEvolucion_2018_02\02 Gestion de Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A506A356-8BA3-4C01-88D0-74F37ECE4DA5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A3488081-B6E3-4F32-81ED-01820CF65C22}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -328,15 +328,6 @@
     <t>URI-GP-ORDE</t>
   </si>
   <si>
-    <t>Cronograma</t>
-  </si>
-  <si>
-    <t>CRONO</t>
-  </si>
-  <si>
-    <t>URI-GP-CRONO</t>
-  </si>
-  <si>
     <t>Fernando Ponce</t>
   </si>
   <si>
@@ -374,6 +365,15 @@
   </si>
   <si>
     <t>URI-MANT-REVER</t>
+  </si>
+  <si>
+    <t>Organización de documentos</t>
+  </si>
+  <si>
+    <t>ORDO</t>
+  </si>
+  <si>
+    <t>URI-GP-ORDO</t>
   </si>
 </sst>
 </file>
@@ -3150,8 +3150,8 @@
   </sheetPr>
   <dimension ref="B1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3324,13 +3324,13 @@
         <v>97</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>14</v>
@@ -3339,7 +3339,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J8" s="8"/>
     </row>
@@ -3368,7 +3368,7 @@
     </row>
     <row r="10" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="31" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>32</v>
@@ -3397,13 +3397,13 @@
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
       <c r="D11" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>14</v>
@@ -3412,7 +3412,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J11" s="7"/>
     </row>
@@ -3476,7 +3476,7 @@
         <v>45</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>14</v>
@@ -3512,7 +3512,7 @@
         <v>15</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J15" s="7"/>
     </row>
@@ -3520,10 +3520,10 @@
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>51</v>
@@ -3543,10 +3543,10 @@
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>51</v>
@@ -3649,10 +3649,10 @@
         <v>70</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
@@ -3686,7 +3686,7 @@
         <v>75</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
